--- a/CTS_Contact.xlsx
+++ b/CTS_Contact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Documents\GitHub\CTS_ATIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE52E4-5B6B-432A-A4B4-24F9668EACB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6683CD-527A-4062-8AF2-B058DE757223}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="780" windowWidth="20415" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="1560" windowWidth="20415" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
